--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1494.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1494.xlsx
@@ -354,7 +354,7 @@
         <v>1.927414863179658</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.242957814521211</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1494.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1494.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.281493042205797</v>
+        <v>1.597787976264954</v>
       </c>
       <c r="B1">
-        <v>1.927414863179658</v>
+        <v>4.39522647857666</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.977920770645142</v>
       </c>
       <c r="D1">
-        <v>2.242957814521211</v>
+        <v>1.143656730651855</v>
       </c>
       <c r="E1">
-        <v>0.8899172217008904</v>
+        <v>0.9038651585578918</v>
       </c>
     </row>
   </sheetData>
